--- a/biology/Zoologie/Caluromys_lanatus/Caluromys_lanatus.xlsx
+++ b/biology/Zoologie/Caluromys_lanatus/Caluromys_lanatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caluromys lanatus est une espèce de mammifères marsupiaux de la famille des Didelphidae (les opossums d'Amérique). Cet Opossum laineux[1],  identifié à la fin du XIXe siècle par Olfers, est un animal omnivore relativement peu commun et discret (animal nocturne).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caluromys lanatus est une espèce de mammifères marsupiaux de la famille des Didelphidae (les opossums d'Amérique). Cet Opossum laineux,  identifié à la fin du XIXe siècle par Olfers, est un animal omnivore relativement peu commun et discret (animal nocturne).
 Diverses épithètes spécifiques ont été attribuées à cette espèce, dont :  antioquiae, bartletti, cahyensis, cicur, jivaro, juninensis, lanigera, meridensis, modesta, nattereri, ochropus, ornata et vitalina.
 En anglais, il est appelé Western Woolly Opossum ou Brown-Eared Woolly Opossum.
 </t>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition : Il vit dans la jungle en Argentine (Nord-Misiones Province), en Bolivie (Est), Brésil (Sud-est, Sud-Est et Ouest), Colombie (Nord et centre), Équateur (Est), Guyana, Pérou (Est), Paraguay (Est et Sud, Caazapá) et Venezuela (Nord-ouest et Sud).
 </t>
@@ -544,9 +558,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se nourrit principalement de fruits d'invertébrés et de petits vertébrés. Il se nourrit aussi de nectar et peut manger d'autres parties des fleurs, comme le pollen[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit principalement de fruits d'invertébrés et de petits vertébrés. Il se nourrit aussi de nectar et peut manger d'autres parties des fleurs, comme le pollen.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sans être aujourd'hui en danger de disparition, il est considéré comme vulnérable, et a disparu d'une partie de son aire de répartition en raison de la déforestation.
 </t>
